--- a/TPs/TP1/TABLA200/AG_TP1_Ruleta_c_Elitismo.xlsx
+++ b/TPs/TP1/TABLA200/AG_TP1_Ruleta_c_Elitismo.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9779612290593896</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="C2">
-        <v>0.03822052660793266</v>
+        <v>0.0006626148426962966</v>
       </c>
       <c r="D2">
-        <v>0.3172639655110752</v>
+        <v>0.3451566118068129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9784441593787016</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="C3">
-        <v>0.1710229640002227</v>
+        <v>0.1935621264295928</v>
       </c>
       <c r="D3">
-        <v>0.5452832290883908</v>
+        <v>0.6132892222308924</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9784441593787016</v>
+        <v>0.9896591659064496</v>
       </c>
       <c r="C4">
-        <v>0.3282261809660818</v>
+        <v>0.3191763664978165</v>
       </c>
       <c r="D4">
-        <v>0.7934669158823542</v>
+        <v>0.7563204049727135</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9784441593787016</v>
+        <v>0.9896591659064496</v>
       </c>
       <c r="C5">
-        <v>0.9473016439461538</v>
+        <v>0.5547512933291457</v>
       </c>
       <c r="D5">
-        <v>0.9751068764657896</v>
+        <v>0.8320829078390766</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9784442183374333</v>
+        <v>0.9896591659064496</v>
       </c>
       <c r="C6">
-        <v>0.9477769448709202</v>
+        <v>0.5547512974911311</v>
       </c>
       <c r="D6">
-        <v>0.972214106104636</v>
+        <v>0.8991088796295459</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9784479327411205</v>
+        <v>0.9896610578096047</v>
       </c>
       <c r="C7">
-        <v>0.9473011725917536</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="D7">
-        <v>0.9599973836887322</v>
+        <v>0.9661310305173508</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.978447991699966</v>
+        <v>0.9896610578096047</v>
       </c>
       <c r="C8">
-        <v>0.9477769013503645</v>
+        <v>0.8720317973419822</v>
       </c>
       <c r="D8">
-        <v>0.9629668035224894</v>
+        <v>0.9778968074306338</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.978447991699966</v>
+        <v>0.9896610578096047</v>
       </c>
       <c r="C9">
-        <v>0.947750948770229</v>
+        <v>0.8720317973419822</v>
       </c>
       <c r="D9">
-        <v>0.9599940626765614</v>
+        <v>0.9661344474724267</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.978447991699966</v>
+        <v>0.9896610578096047</v>
       </c>
       <c r="C10">
-        <v>0.9176016657671775</v>
+        <v>0.8720317973419822</v>
       </c>
       <c r="D10">
-        <v>0.9570274404639905</v>
+        <v>0.9661346381451337</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.978447991699966</v>
+        <v>0.9926663509386102</v>
       </c>
       <c r="C11">
-        <v>0.801765077752957</v>
+        <v>0.8692133974496447</v>
       </c>
       <c r="D11">
-        <v>0.9454937255466834</v>
+        <v>0.9779166318961938</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.978447991699966</v>
+        <v>0.9935508767982563</v>
       </c>
       <c r="C12">
-        <v>0.6937478479077852</v>
+        <v>0.8692151704927558</v>
       </c>
       <c r="D12">
-        <v>0.9377106650957645</v>
+        <v>0.9785178519933211</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.978447991699966</v>
+        <v>0.9935508767982563</v>
       </c>
       <c r="C13">
-        <v>0.6937478479077852</v>
+        <v>0.9887782655232609</v>
       </c>
       <c r="D13">
-        <v>0.9377102922047078</v>
+        <v>0.991251938069146</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9785083664900175</v>
+        <v>0.9935511571492885</v>
       </c>
       <c r="C14">
-        <v>0.917660190304793</v>
+        <v>0.9887782655232609</v>
       </c>
       <c r="D14">
-        <v>0.9662413857410723</v>
+        <v>0.9924102224220908</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9785083664900175</v>
+        <v>0.9935511571492885</v>
       </c>
       <c r="C15">
-        <v>0.9477807166562171</v>
+        <v>0.7599833257995967</v>
       </c>
       <c r="D15">
-        <v>0.9692594994387569</v>
+        <v>0.9700172165514331</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9785083664900175</v>
+        <v>0.9935511571492885</v>
       </c>
       <c r="C16">
-        <v>0.9477807166562171</v>
+        <v>0.7599833257995967</v>
       </c>
       <c r="D16">
-        <v>0.9692714836203298</v>
+        <v>0.9701942338388033</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9785083664900175</v>
+        <v>0.9935511571492885</v>
       </c>
       <c r="C17">
-        <v>0.9478363513611124</v>
+        <v>0.7598769122609518</v>
       </c>
       <c r="D17">
-        <v>0.9723498139167086</v>
+        <v>0.9468268934552795</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9785082927891872</v>
+        <v>0.99356609193298</v>
       </c>
       <c r="C18">
-        <v>0.9478364238976474</v>
+        <v>0.7598771525663354</v>
       </c>
       <c r="D18">
-        <v>0.9754155000257059</v>
+        <v>0.9468284390691393</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9786253479462773</v>
+        <v>0.9935663667162277</v>
       </c>
       <c r="C19">
-        <v>0.9478364238976474</v>
+        <v>0.759983320928201</v>
       </c>
       <c r="D19">
-        <v>0.9754336118925929</v>
+        <v>0.9468420118684451</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9941434916463977</v>
+        <v>0.9935663667162277</v>
       </c>
       <c r="C20">
-        <v>0.9478364238976474</v>
+        <v>0.7599966604920525</v>
       </c>
       <c r="D20">
-        <v>0.9772088983597571</v>
+        <v>0.9702031267891874</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9941471763005727</v>
+        <v>0.9935663667162277</v>
       </c>
       <c r="C21">
-        <v>0.9478364093903402</v>
+        <v>0.7599966604920525</v>
       </c>
       <c r="D21">
-        <v>0.9772092384359172</v>
+        <v>0.9702031774755613</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9941471763005727</v>
+        <v>0.9935663667162277</v>
       </c>
       <c r="C22">
-        <v>0.9176601332067736</v>
+        <v>0.7599966604920525</v>
       </c>
       <c r="D22">
-        <v>0.9742551087280742</v>
+        <v>0.9702016511348246</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9941471763005727</v>
+        <v>0.9935663667162277</v>
       </c>
       <c r="C23">
-        <v>0.7469366112752752</v>
+        <v>0.9935507579739895</v>
       </c>
       <c r="D23">
-        <v>0.9478843341481596</v>
+        <v>0.9935586098746008</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9941471763005727</v>
+        <v>0.9935663667162277</v>
       </c>
       <c r="C24">
-        <v>0.7469366112752752</v>
+        <v>0.9935507579739895</v>
       </c>
       <c r="D24">
-        <v>0.9433569969033725</v>
+        <v>0.9935586379097041</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9941467008609406</v>
+        <v>0.9935663667162277</v>
       </c>
       <c r="C25">
-        <v>0.7469366144948758</v>
+        <v>0.9935507579739895</v>
       </c>
       <c r="D25">
-        <v>0.957102662068387</v>
+        <v>0.9935601588661834</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9941467008609406</v>
+        <v>0.9935663667162277</v>
       </c>
       <c r="C26">
-        <v>0.7401998814993556</v>
+        <v>0.9935507579739895</v>
       </c>
       <c r="D26">
-        <v>0.9564296607788823</v>
+        <v>0.993560158866398</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9941467045753123</v>
+        <v>0.9940376833265735</v>
       </c>
       <c r="C27">
-        <v>0.7401998814993556</v>
+        <v>0.9935508767982563</v>
       </c>
       <c r="D27">
-        <v>0.9671995241795267</v>
+        <v>0.9936073542097853</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9941467045753123</v>
+        <v>0.9940531343255703</v>
       </c>
       <c r="C28">
-        <v>0.9941434953607633</v>
+        <v>0.9935508767982563</v>
       </c>
       <c r="D28">
-        <v>0.9941460125883861</v>
+        <v>0.9936560072060775</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9941467045753123</v>
+        <v>0.9940528966169839</v>
       </c>
       <c r="C29">
-        <v>0.7605043328962187</v>
+        <v>0.9935509195007288</v>
       </c>
       <c r="D29">
-        <v>0.9646480387238621</v>
+        <v>0.9937502790741313</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9941467045753123</v>
+        <v>0.9940528966169839</v>
       </c>
       <c r="C30">
-        <v>0.760504440103658</v>
+        <v>0.9935509195007288</v>
       </c>
       <c r="D30">
-        <v>0.9585140427134267</v>
+        <v>0.9938978341937025</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9941467045753123</v>
+        <v>0.9940528966169839</v>
       </c>
       <c r="C31">
-        <v>0.9328062170847926</v>
+        <v>0.9935509195007288</v>
       </c>
       <c r="D31">
-        <v>0.9696101809822494</v>
+        <v>0.9939464871837782</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9941467045753123</v>
+        <v>0.9940531343255703</v>
       </c>
       <c r="C32">
-        <v>0.9028686150459235</v>
+        <v>0.9862789209135978</v>
       </c>
       <c r="D32">
-        <v>0.9666164236439986</v>
+        <v>0.9931234670708108</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9960948208009381</v>
+        <v>0.9940531343255703</v>
       </c>
       <c r="C33">
-        <v>0.994143476788935</v>
+        <v>0.9940376833265735</v>
       </c>
       <c r="D33">
-        <v>0.9943411689043856</v>
+        <v>0.9940484039420727</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9960950587535427</v>
+        <v>0.9940531343255703</v>
       </c>
       <c r="C34">
-        <v>0.760504440103658</v>
+        <v>0.9940379210333409</v>
       </c>
       <c r="D34">
-        <v>0.9476069770505102</v>
+        <v>0.9940499475562939</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9960950587535427</v>
+        <v>0.9940531343255703</v>
       </c>
       <c r="C35">
-        <v>0.247077647037941</v>
+        <v>0.9940379210333409</v>
       </c>
       <c r="D35">
-        <v>0.8495374622997096</v>
+        <v>0.9940484990253255</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9960950587535427</v>
+        <v>0.9940531343255703</v>
       </c>
       <c r="C36">
-        <v>0.1888502649112532</v>
+        <v>0.9940379210333409</v>
       </c>
       <c r="D36">
-        <v>0.8406241058513902</v>
+        <v>0.9940500203545485</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9960950587535427</v>
+        <v>0.9940531343255703</v>
       </c>
       <c r="C37">
-        <v>0.7604975788427678</v>
+        <v>0.9940528966169839</v>
       </c>
       <c r="D37">
-        <v>0.9477516874187657</v>
+        <v>0.9940530867838531</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9960969623754019</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="C38">
-        <v>0.7604977867593097</v>
+        <v>0.9940455276649036</v>
       </c>
       <c r="D38">
-        <v>0.9718040509815354</v>
+        <v>0.9940527049662323</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9960969623754019</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="C39">
-        <v>0.7600786847386886</v>
+        <v>0.9940455276649036</v>
       </c>
       <c r="D39">
-        <v>0.971664972222363</v>
+        <v>0.9940534790055666</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9960969623754019</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="C40">
-        <v>0.7600786847386886</v>
+        <v>0.9940455276649036</v>
       </c>
       <c r="D40">
-        <v>0.9659636156797923</v>
+        <v>0.9940538949960025</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9960969623754019</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="C41">
-        <v>0.9941467045753123</v>
+        <v>0.9940455276649036</v>
       </c>
       <c r="D41">
-        <v>0.9958947029225497</v>
+        <v>0.9940519933297445</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9960969623754019</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="C42">
-        <v>0.9941467045753123</v>
+        <v>0.9940455276649036</v>
       </c>
       <c r="D42">
-        <v>0.9954990773226455</v>
+        <v>0.994052753997994</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9960974382811509</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="C43">
-        <v>0.8752456061977122</v>
+        <v>0.9940455276649036</v>
       </c>
       <c r="D43">
-        <v>0.9773172244681423</v>
+        <v>0.9940542753323101</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9960964864697666</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="C44">
-        <v>0.7351701186483877</v>
+        <v>0.9940455276649036</v>
       </c>
       <c r="D44">
-        <v>0.954519986668546</v>
+        <v>0.9940538920268278</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9960964864697666</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="C45">
-        <v>0.7347531252302226</v>
+        <v>0.9631440769924291</v>
       </c>
       <c r="D45">
-        <v>0.9568560083666704</v>
+        <v>0.9909637469595804</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9960969326312964</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="C46">
-        <v>0.9863434733674781</v>
+        <v>0.9940531194687828</v>
       </c>
       <c r="D46">
-        <v>0.9939054949456813</v>
+        <v>0.9940561740272107</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9960969326312964</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="C47">
-        <v>0.9862529939751602</v>
+        <v>0.9940531194687828</v>
       </c>
       <c r="D47">
-        <v>0.992140680161792</v>
+        <v>0.9940561740272106</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9960969326312964</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="C48">
-        <v>0.986253001374352</v>
+        <v>0.9940531194687828</v>
       </c>
       <c r="D48">
-        <v>0.9931120699836796</v>
+        <v>0.994056555847014</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9960974382811509</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="C49">
-        <v>0.9863429406013045</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D49">
-        <v>0.9931708917687176</v>
+        <v>0.9940569376668176</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.9960974382811509</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="C50">
-        <v>0.9863741964602157</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D50">
-        <v>0.9941455069545503</v>
+        <v>0.9940569376668176</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9960974382811509</v>
+        <v>0.99408736465873</v>
       </c>
       <c r="C51">
-        <v>0.9863742260588017</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D51">
-        <v>0.9949268490555776</v>
+        <v>0.9940599803660088</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.9960974382811509</v>
+        <v>0.99408736465873</v>
       </c>
       <c r="C52">
-        <v>0.2480351600345364</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D52">
-        <v>0.9201176260141155</v>
+        <v>0.9940599803660088</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9999998733401336</v>
+        <v>0.99408736465873</v>
       </c>
       <c r="C53">
-        <v>0.986374255657388</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D53">
-        <v>0.9935705364048243</v>
+        <v>0.9940660657643914</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9999998733401336</v>
+        <v>0.99408736465873</v>
       </c>
       <c r="C54">
-        <v>0.5522923749387659</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D54">
-        <v>0.9501128588438886</v>
+        <v>0.9940660657643914</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9999998733401336</v>
+        <v>0.99408736465873</v>
       </c>
       <c r="C55">
-        <v>0.9863747292348306</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D55">
-        <v>0.9963906294685898</v>
+        <v>0.9940660653929653</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9999998733401336</v>
+        <v>0.99408736465873</v>
       </c>
       <c r="C56">
-        <v>0.9941487251945378</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D56">
-        <v>0.9973102712006667</v>
+        <v>0.9940721511627737</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9999998733401336</v>
+        <v>0.99408736465873</v>
       </c>
       <c r="C57">
-        <v>0.9956096945512484</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D57">
-        <v>0.9986828193309391</v>
+        <v>0.9940721511627737</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9999998733401336</v>
+        <v>0.99408736465873</v>
       </c>
       <c r="C58">
-        <v>0.995602078220281</v>
+        <v>0.9940568188122934</v>
       </c>
       <c r="D58">
-        <v>0.9982178656141765</v>
+        <v>0.99406909657813</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9999998733401336</v>
+        <v>0.99408736465873</v>
       </c>
       <c r="C59">
-        <v>0.9953584936601</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D59">
-        <v>0.9986202941669775</v>
+        <v>0.9940721511627737</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9999998733401336</v>
+        <v>0.99408736465873</v>
       </c>
       <c r="C60">
-        <v>0.5624999046558553</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D60">
-        <v>0.9557734773575517</v>
+        <v>0.9940782365611562</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9999998733401336</v>
+        <v>0.99408736465873</v>
       </c>
       <c r="C61">
-        <v>0.9960974382811509</v>
+        <v>0.9931139318855283</v>
       </c>
       <c r="D61">
-        <v>0.9995363906315378</v>
+        <v>0.993883550006516</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9999998733401336</v>
+        <v>0.99408736465873</v>
       </c>
       <c r="C62">
-        <v>0.9960974382811509</v>
+        <v>0.9931139318855283</v>
       </c>
       <c r="D62">
-        <v>0.9991583057273854</v>
+        <v>0.9939778505846449</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9999998733401336</v>
+        <v>0.99408736465873</v>
       </c>
       <c r="C63">
-        <v>0.9843147965662011</v>
+        <v>0.9931139318855283</v>
       </c>
       <c r="D63">
-        <v>0.9979739377612468</v>
+        <v>0.9938865927057071</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9999998733401336</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="C64">
-        <v>0.2499389047811787</v>
+        <v>0.9631440769924291</v>
       </c>
       <c r="D64">
-        <v>0.9112620616316069</v>
+        <v>0.9907953073811206</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9999998733401336</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="C65">
-        <v>0.878734478163633</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D65">
-        <v>0.95587496659219</v>
+        <v>0.9940782380468492</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.9999998733401336</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="C66">
-        <v>0.8769045560864855</v>
+        <v>0.9939352343557804</v>
       </c>
       <c r="D66">
-        <v>0.9740073580265431</v>
+        <v>0.9940660669729047</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.9999998733401336</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="C67">
-        <v>0.968994015915545</v>
+        <v>0.9939352343557804</v>
       </c>
       <c r="D67">
-        <v>0.9953428673689541</v>
+        <v>0.9940622167948693</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.9999998733401336</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="C68">
-        <v>0.982498997056757</v>
+        <v>0.8733351824747208</v>
       </c>
       <c r="D68">
-        <v>0.9982497618699409</v>
+        <v>0.9819885674598658</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.9999998733401336</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="C69">
-        <v>0.982498997056757</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D69">
-        <v>0.9982436584478291</v>
+        <v>0.9940812829746084</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.9999998733401336</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="C70">
-        <v>0.5624999046558553</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D70">
-        <v>0.953149267259921</v>
+        <v>0.9940782410182694</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.9999998733401336</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="C71">
-        <v>0.2499999362044077</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D71">
-        <v>0.8781492731738194</v>
+        <v>0.9940782417611101</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.9999998733401336</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="C72">
-        <v>0.2499999362044077</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D72">
-        <v>0.9249996650499457</v>
+        <v>0.9940751983190553</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.9999998733401336</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="C73">
-        <v>0.9999846146102309</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D73">
-        <v>0.9999966055274216</v>
+        <v>0.9940782425039509</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.9999998733401336</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="C74">
-        <v>0.2499999362044077</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D74">
-        <v>0.9128887649576656</v>
+        <v>0.994078241018258</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.9999998807907138</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="C75">
-        <v>0.8789061311472361</v>
+        <v>0.9940569376668176</v>
       </c>
       <c r="D75">
-        <v>0.9874972075942553</v>
+        <v>0.9940783375875961</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.9999999925494194</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="C76">
-        <v>0.968994015915545</v>
+        <v>0.9940569450952256</v>
       </c>
       <c r="D76">
-        <v>0.9965044836207706</v>
+        <v>0.9940813810296396</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.9999999925494194</v>
+        <v>0.994148227468288</v>
       </c>
       <c r="C77">
-        <v>0.968994015915545</v>
+        <v>0.9940578959316778</v>
       </c>
       <c r="D77">
-        <v>0.9968931953048902</v>
+        <v>0.9940905085240936</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9999999925494194</v>
+        <v>0.994148227468288</v>
       </c>
       <c r="C78">
-        <v>0.99996936344721</v>
+        <v>0.9940578959316778</v>
       </c>
       <c r="D78">
-        <v>0.9999968476828144</v>
+        <v>0.9940875609085363</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9999999925494194</v>
+        <v>0.994148227468288</v>
       </c>
       <c r="C79">
-        <v>0.7656248889688907</v>
+        <v>0.8733360806692748</v>
       </c>
       <c r="D79">
-        <v>0.9765593604213902</v>
+        <v>0.9812350210949299</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.9999999925494194</v>
+        <v>0.994148227468288</v>
       </c>
       <c r="C80">
-        <v>0.7656248889688907</v>
+        <v>0.8733360806692748</v>
       </c>
       <c r="D80">
-        <v>0.976559359676332</v>
+        <v>0.957874155738066</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.9999999925494194</v>
+        <v>0.994148227468288</v>
       </c>
       <c r="C81">
-        <v>0.9999694752042103</v>
+        <v>0.8733360806692748</v>
       </c>
       <c r="D81">
-        <v>0.999996773921907</v>
+        <v>0.9820244140216614</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.9999999925494194</v>
+        <v>0.9960356681524085</v>
       </c>
       <c r="C82">
-        <v>0.9990235493196493</v>
+        <v>0.8733360806692748</v>
       </c>
       <c r="D82">
-        <v>0.9998991295989322</v>
+        <v>0.9822192436281771</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.9999999925494194</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="C83">
-        <v>0.9990235493196493</v>
+        <v>0.9940873720872517</v>
       </c>
       <c r="D83">
-        <v>0.9997892905331058</v>
+        <v>0.9948849530880899</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.9999999925494194</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="C84">
-        <v>0.2499999958090484</v>
+        <v>0.9940265185688606</v>
       </c>
       <c r="D84">
-        <v>0.9249724205358667</v>
+        <v>0.9952807099464183</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.9999999925494194</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="C85">
-        <v>0.2499999958090484</v>
+        <v>0.9940265185688606</v>
       </c>
       <c r="D85">
-        <v>0.8484252388866113</v>
+        <v>0.9950797949880636</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.9999999925494194</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="C86">
-        <v>0.9999694752042103</v>
+        <v>0.9632339361660069</v>
       </c>
       <c r="D86">
-        <v>0.9999906466110167</v>
+        <v>0.9917874451252807</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.9999999925494194</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="C87">
-        <v>0.249999757390528</v>
+        <v>0.9632339361660069</v>
       </c>
       <c r="D87">
-        <v>0.8484343685021122</v>
+        <v>0.9889243243949718</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C88">
-        <v>0.9999694752042103</v>
+        <v>0.9632339361660069</v>
       </c>
       <c r="D88">
-        <v>0.9999923378753237</v>
+        <v>0.9893176194913412</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C89">
-        <v>0.9960670995170419</v>
+        <v>0.9940265185688606</v>
       </c>
       <c r="D89">
-        <v>0.999601873809232</v>
+        <v>0.9966706355628603</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C90">
-        <v>0.9980478212291946</v>
+        <v>0.9689931724867755</v>
       </c>
       <c r="D90">
-        <v>0.9998014927149821</v>
+        <v>0.99435053783628</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C91">
-        <v>0.9844360277494388</v>
+        <v>0.9689931724867755</v>
       </c>
       <c r="D91">
-        <v>0.9979981840415212</v>
+        <v>0.9912620767785519</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C92">
-        <v>0.9536445069981894</v>
+        <v>0.9689931724867755</v>
       </c>
       <c r="D92">
-        <v>0.9943612501654888</v>
+        <v>0.9918471081400948</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C93">
-        <v>0.9536445069981894</v>
+        <v>0.9689931724867755</v>
       </c>
       <c r="D93">
-        <v>0.9945774692051298</v>
+        <v>0.9893316501859321</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C94">
-        <v>0.9689640780860326</v>
+        <v>0.5393059180212416</v>
       </c>
       <c r="D94">
-        <v>0.9968916089177136</v>
+        <v>0.9028090727967392</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.9999999776482583</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C95">
-        <v>0.9689603377233712</v>
+        <v>0.5624992620435163</v>
       </c>
       <c r="D95">
-        <v>0.9966945769007289</v>
+        <v>0.9513926002067375</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C96">
-        <v>0.998039961114993</v>
+        <v>0.5624992620435163</v>
       </c>
       <c r="D96">
-        <v>0.9996035093052626</v>
+        <v>0.9546880677213887</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C97">
-        <v>0.9980392465606913</v>
+        <v>0.5624992620435163</v>
       </c>
       <c r="D97">
-        <v>0.9994106472781974</v>
+        <v>0.9550783110599399</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C98">
-        <v>0.998039961114993</v>
+        <v>0.5624992620435163</v>
       </c>
       <c r="D98">
-        <v>0.9994097382627484</v>
+        <v>0.9546881629025317</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C99">
-        <v>0.9980401992998171</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="D99">
-        <v>0.9996052526257788</v>
+        <v>0.9984380431693973</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C100">
-        <v>0.7656183175713753</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="D100">
-        <v>0.9759753362612267</v>
+        <v>0.999218529101442</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C101">
-        <v>0.7656183175713753</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="D101">
-        <v>0.9296847029036248</v>
+        <v>0.9992185298464997</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.9999999925494194</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="C102">
-        <v>0.7656183175713753</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="D102">
-        <v>0.9531226919600456</v>
+        <v>0.9992185298464997</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C103">
-        <v>0.9999922514111821</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="D103">
-        <v>0.9999976873441977</v>
+        <v>0.9992186252139073</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.9999999925494194</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C104">
-        <v>0.562499999650754</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="D104">
-        <v>0.943943911055799</v>
+        <v>0.9992186252139073</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.9999999925494194</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C105">
-        <v>0.8788990903631424</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="D105">
-        <v>0.9876934871472374</v>
+        <v>0.9992186248413784</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.9999999925494194</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C106">
-        <v>0.8788990903631424</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="D106">
-        <v>0.9630841543281425</v>
+        <v>0.9984382339042123</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.9999999925494194</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C107">
-        <v>0.8788990903631424</v>
+        <v>0.9960965831380897</v>
       </c>
       <c r="D107">
-        <v>0.9605629197591735</v>
+        <v>0.9992189113161301</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.9999999925494194</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C108">
-        <v>0.8788990903631424</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="D108">
-        <v>0.9636624383002117</v>
+        <v>0.99999949336064</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.9999999925494194</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C109">
-        <v>0.1913795443326834</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="D109">
-        <v>0.8198986827469834</v>
+        <v>0.9999995887280475</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C110">
-        <v>0.8787846536364805</v>
+        <v>0.9384765335726117</v>
       </c>
       <c r="D110">
-        <v>0.9878776849160833</v>
+        <v>0.9938473404329485</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C111">
-        <v>0.8787846536364805</v>
+        <v>0.9384756097008585</v>
       </c>
       <c r="D111">
-        <v>0.9878779315299406</v>
+        <v>0.9938473434131808</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C112">
-        <v>0.9997558742759338</v>
+        <v>0.9384756097008585</v>
       </c>
       <c r="D112">
-        <v>0.999974964931997</v>
+        <v>0.9938443870461015</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C113">
-        <v>0.9997558742759338</v>
+        <v>0.9999694528528098</v>
       </c>
       <c r="D113">
-        <v>0.9999741300951897</v>
+        <v>0.999993675993889</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C114">
-        <v>0.9689903855073646</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="D114">
-        <v>0.9968977738157951</v>
+        <v>0.9999997794628627</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C115">
-        <v>0.2346191401597935</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="D115">
-        <v>0.9234593141454974</v>
+        <v>0.9999998748302703</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C116">
-        <v>0.2499999995343387</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="D116">
-        <v>0.8984366181545749</v>
+        <v>0.9999998748302703</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C117">
-        <v>0.7656249997962732</v>
+        <v>0.9999999552965169</v>
       </c>
       <c r="D117">
-        <v>0.9406185150682586</v>
+        <v>0.9999999687075617</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C118">
-        <v>0.2346191257242938</v>
+        <v>0.9990236461298998</v>
       </c>
       <c r="D118">
-        <v>0.7437248012074428</v>
+        <v>0.9999023377909</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C119">
-        <v>0.9689300703875697</v>
+        <v>0.9922027290959081</v>
       </c>
       <c r="D119">
-        <v>0.9936631627825872</v>
+        <v>0.999122613680723</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C120">
-        <v>0.9384763314756268</v>
+        <v>0.9922027290959081</v>
       </c>
       <c r="D120">
-        <v>0.9844103117083547</v>
+        <v>0.9992202460875008</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C121">
-        <v>0.8789060263734567</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D121">
-        <v>0.9722595841753223</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C122">
-        <v>0.2499999995343387</v>
+        <v>0.9999999552965169</v>
       </c>
       <c r="D122">
-        <v>0.8943972769658786</v>
+        <v>0.9999999687075617</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C123">
-        <v>0.2346191401597935</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D123">
-        <v>0.9171848608040202</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C124">
-        <v>0.9384765624436113</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D124">
-        <v>0.9937224695783528</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C125">
-        <v>0.9384761005076707</v>
+        <v>0.9960975349495202</v>
       </c>
       <c r="D125">
-        <v>0.9876463964468372</v>
+        <v>0.9996097266728621</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C126">
-        <v>0.7656249997962732</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D126">
-        <v>0.9438231542213658</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C127">
-        <v>0.7656249997962732</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D127">
-        <v>0.9765136301313362</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C128">
-        <v>0.7656249997962732</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D128">
-        <v>0.9530699786322259</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C129">
-        <v>0.7656249997962732</v>
+        <v>0.9999923408178051</v>
       </c>
       <c r="D129">
-        <v>0.9296809163282941</v>
+        <v>0.9999992072596905</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C130">
-        <v>0.7656249704596124</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D130">
-        <v>0.9530212135126022</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C131">
-        <v>0.2499999995343387</v>
+        <v>0.9999694528528098</v>
       </c>
       <c r="D131">
-        <v>0.8775518893317222</v>
+        <v>0.9999969184631909</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C132">
-        <v>0.7647707460266706</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D132">
-        <v>0.9759861245775248</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C133">
-        <v>0.6593630311029988</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D133">
-        <v>0.9595856368431983</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C134">
-        <v>0.9844360351418118</v>
+        <v>0.9999994933605831</v>
       </c>
       <c r="D134">
-        <v>0.9982452690876107</v>
+        <v>0.9999999225139684</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C135">
-        <v>0.9990236759176701</v>
+        <v>0.9980477988992809</v>
       </c>
       <c r="D135">
-        <v>0.9998943553134421</v>
+        <v>0.9998046577004193</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C136">
-        <v>0.9989779224260507</v>
+        <v>0.9980477988992809</v>
       </c>
       <c r="D136">
-        <v>0.9998810079064043</v>
+        <v>0.9998046994236643</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C137">
-        <v>0.9988559182373399</v>
+        <v>0.96899411125969</v>
       </c>
       <c r="D137">
-        <v>0.9998459204738921</v>
+        <v>0.9968993187387769</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C138">
-        <v>0.9688289235640091</v>
+        <v>0.96899411125969</v>
       </c>
       <c r="D138">
-        <v>0.9964358917637375</v>
+        <v>0.9968962774351023</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C139">
-        <v>0.9688437043702625</v>
+        <v>0.9999994933605831</v>
       </c>
       <c r="D139">
-        <v>0.9965989670245141</v>
+        <v>0.9999999150633879</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C140">
-        <v>0.9985356926904397</v>
+        <v>0.9999994933605831</v>
       </c>
       <c r="D140">
-        <v>0.9998196655672535</v>
+        <v>0.9999999217689103</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C141">
-        <v>0.8775183080714888</v>
+        <v>0.96899411125969</v>
       </c>
       <c r="D141">
-        <v>0.9875808378060776</v>
+        <v>0.9968992881914135</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C142">
-        <v>0.9985353799952716</v>
+        <v>0.96899411125969</v>
       </c>
       <c r="D142">
-        <v>0.9996826708543081</v>
+        <v>0.9937987976650222</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C143">
-        <v>0.9985353799952716</v>
+        <v>0.96899411125969</v>
       </c>
       <c r="D143">
-        <v>0.9995605975843853</v>
+        <v>0.9968993835588209</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C144">
-        <v>0.9999997615814349</v>
+        <v>0.9384765335726117</v>
       </c>
       <c r="D144">
-        <v>0.9999999508261709</v>
+        <v>0.9876434030130868</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C145">
-        <v>0.9384765624436113</v>
+        <v>0.96899411125969</v>
       </c>
       <c r="D145">
-        <v>0.9933110155631335</v>
+        <v>0.9968475104055388</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C146">
-        <v>0.9956100588274469</v>
+        <v>0.9980477988992809</v>
       </c>
       <c r="D146">
-        <v>0.9990731881107923</v>
+        <v>0.9998017013333513</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C147">
-        <v>0.9956100513932381</v>
+        <v>0.9980477988992809</v>
       </c>
       <c r="D147">
-        <v>0.9991220102770104</v>
+        <v>0.9998047471073738</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C148">
-        <v>0.9689941405963509</v>
+        <v>0.9980477988992809</v>
       </c>
       <c r="D148">
-        <v>0.9958262064588373</v>
+        <v>0.9994143188081587</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C149">
-        <v>0.8789062498908606</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D149">
-        <v>0.9654611163592497</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C150">
-        <v>0.8789062498908606</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D150">
-        <v>0.9744699978671795</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C151">
-        <v>0.1914062365030989</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D151">
-        <v>0.9147169466344408</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C152">
-        <v>0.9689941332621856</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D152">
-        <v>0.9964542114790926</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C153">
-        <v>0.765571379837838</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D153">
-        <v>0.9734565089231854</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C154">
-        <v>0.2499999697320172</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D154">
-        <v>0.8779156097747686</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C155">
-        <v>0.7656249411229521</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D155">
-        <v>0.9757827633111477</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C156">
-        <v>0.992202758781815</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D156">
-        <v>0.9992202691726592</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C157">
-        <v>0.8789062498908606</v>
+        <v>0.2499999846331778</v>
       </c>
       <c r="D157">
-        <v>0.9870620712521061</v>
+        <v>0.8499999730847778</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C158">
-        <v>0.7656216554205573</v>
+        <v>0.1406249883875719</v>
       </c>
       <c r="D158">
-        <v>0.9175533716315625</v>
+        <v>0.9140624720166672</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C159">
-        <v>0.1406235662616533</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D159">
-        <v>0.8785152841545838</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C160">
-        <v>0.7588043210799071</v>
+        <v>0.9999997317791163</v>
       </c>
       <c r="D160">
-        <v>0.9524000101326836</v>
+        <v>0.9999999463558217</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C161">
-        <v>0.8789044617524253</v>
+        <v>0.9999997317791163</v>
       </c>
       <c r="D161">
-        <v>0.9878897599770763</v>
+        <v>0.9999999463558217</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C162">
-        <v>0.2499999399296975</v>
+        <v>0.9999992549420784</v>
       </c>
       <c r="D162">
-        <v>0.8985905661480983</v>
+        <v>0.9999998971820018</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C163">
-        <v>0.2499999995343387</v>
+        <v>0.9999992549420784</v>
       </c>
       <c r="D163">
-        <v>0.9249984621561556</v>
+        <v>0.9999998256564417</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C164">
-        <v>0.9999827147276947</v>
+        <v>0.9999992549420784</v>
       </c>
       <c r="D164">
-        <v>0.9999972205690822</v>
+        <v>0.9999998256564417</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C165">
-        <v>0.2499999995343387</v>
+        <v>0.9999999552965169</v>
       </c>
       <c r="D165">
-        <v>0.9249500286078305</v>
+        <v>0.9999999657273294</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C166">
-        <v>0.2499999995343387</v>
+        <v>0.9999999552965169</v>
       </c>
       <c r="D166">
-        <v>0.8437979719551812</v>
+        <v>0.9999999687075617</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C167">
-        <v>0.9384174355672634</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D167">
-        <v>0.9876366627531938</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C168">
-        <v>0.9380035851550306</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D168">
-        <v>0.9868544582632452</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.9999999850988388</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C169">
-        <v>0.7656249997962732</v>
+        <v>0.9999923408178051</v>
       </c>
       <c r="D169">
-        <v>0.9395774961156196</v>
+        <v>0.9999992072596905</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.9999999850988388</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C170">
-        <v>0.9380008142396056</v>
+        <v>0.9990236461298998</v>
       </c>
       <c r="D170">
-        <v>0.9931413040672232</v>
+        <v>0.9999015271693852</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C171">
-        <v>0.5162486032132197</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D171">
-        <v>0.9512344022169218</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C172">
-        <v>0.5624998990679203</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D172">
-        <v>0.9531492728595159</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C173">
-        <v>0.9384764325241165</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D173">
-        <v>0.9907438863915546</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="C174">
-        <v>0.9999694677537435</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D174">
-        <v>0.999996636831292</v>
+        <v>0.9999999701976778</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2827,10 +2827,10 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>0.9999693485462772</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="D175">
-        <v>0.9999936819544661</v>
+        <v>0.9999998837709668</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2841,10 +2841,10 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>0.998017207152066</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D176">
-        <v>0.9997950375928625</v>
+        <v>0.9999999880790711</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2855,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="C177">
-        <v>0.9999694826546772</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="D177">
-        <v>0.9999968454474789</v>
+        <v>0.9999997824430954</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2869,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>0.9999923706200136</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="D178">
-        <v>0.9999990373864881</v>
+        <v>0.9999997854233275</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="C179">
-        <v>0.9689866304256542</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="D179">
-        <v>0.9868161949237024</v>
+        <v>0.9999997854233275</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2897,10 +2897,10 @@
         <v>1</v>
       </c>
       <c r="C180">
-        <v>0.9689931871550989</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="D180">
-        <v>0.9961163372232719</v>
+        <v>0.9999995015562787</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2911,10 +2911,10 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>0.9999990314247561</v>
+        <v>0.9384756097008585</v>
       </c>
       <c r="D181">
-        <v>0.9999997019768451</v>
+        <v>0.9938472599667021</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2925,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>0.9384765624436113</v>
+        <v>0.9384756097008585</v>
       </c>
       <c r="D182">
-        <v>0.9938474550787311</v>
+        <v>0.993651947469455</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2939,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>0.9689941405963509</v>
+        <v>0.9384756097008585</v>
       </c>
       <c r="D183">
-        <v>0.9937988191785735</v>
+        <v>0.9938473642748062</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2953,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>0.9689941405963509</v>
+        <v>0.9384756097008585</v>
       </c>
       <c r="D184">
-        <v>0.9968016818136448</v>
+        <v>0.9938464046415281</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2967,10 +2967,10 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>0.9990236461298998</v>
+        <v>0.562499999650754</v>
       </c>
       <c r="D185">
-        <v>0.999792425714088</v>
+        <v>0.9493175402803073</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2981,10 +2981,10 @@
         <v>1</v>
       </c>
       <c r="C186">
-        <v>0.9951231033655974</v>
+        <v>0.9384756097008585</v>
       </c>
       <c r="D186">
-        <v>0.9989996388774915</v>
+        <v>0.993847459642214</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2995,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>0.9951231479599412</v>
+        <v>0.9999990165236021</v>
       </c>
       <c r="D187">
-        <v>0.9992434252779079</v>
+        <v>0.9999997034669645</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3009,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>0.2499084551818669</v>
+        <v>0.9999389657750157</v>
       </c>
       <c r="D188">
-        <v>0.9239593917714842</v>
+        <v>0.9999938965775016</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>0.9951221966141577</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>0.9984791389303475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3037,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="C190">
-        <v>0.9950004243923002</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>0.9984667822518331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.9999999701976778</v>
+        <v>1</v>
       </c>
       <c r="C191">
-        <v>0.9950004243923002</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>0.998297176330478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.9999999664723876</v>
+        <v>1</v>
       </c>
       <c r="C192">
-        <v>0.8779909609648944</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>0.9874866263912073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.9999999664723876</v>
+        <v>1</v>
       </c>
       <c r="C193">
-        <v>0.8779909609648944</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>0.9874480019364427</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.9999999664723876</v>
+        <v>1</v>
       </c>
       <c r="C194">
-        <v>0.8779810999326945</v>
+        <v>0.9960975646936348</v>
       </c>
       <c r="D194">
-        <v>0.9869531649950233</v>
+        <v>0.9996097564693635</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.9999999664723876</v>
+        <v>1</v>
       </c>
       <c r="C195">
-        <v>0.562499918625693</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>0.9557087681850123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.9999999664723876</v>
+        <v>1</v>
       </c>
       <c r="C196">
-        <v>0.765455586691381</v>
+        <v>0.9999961853063688</v>
       </c>
       <c r="D196">
-        <v>0.9759954724819332</v>
+        <v>0.9999988496314461</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.9999999664723876</v>
+        <v>1</v>
       </c>
       <c r="C197">
-        <v>0.765455586691381</v>
+        <v>0.992202758781815</v>
       </c>
       <c r="D197">
-        <v>0.952755556351463</v>
+        <v>0.9992202758781815</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.9999999515712267</v>
+        <v>1</v>
       </c>
       <c r="C198">
-        <v>0.7654551662458207</v>
+        <v>0.992202758781815</v>
       </c>
       <c r="D198">
-        <v>0.9763886695420292</v>
+        <v>0.9992202758781815</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.9999999701976778</v>
+        <v>1</v>
       </c>
       <c r="C199">
-        <v>0.8787899967382331</v>
+        <v>0.2499999995343387</v>
       </c>
       <c r="D199">
-        <v>0.9876500812664656</v>
+        <v>0.9249999999534338</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.9999999701976778</v>
+        <v>1</v>
       </c>
       <c r="C200">
-        <v>0.9922026697240958</v>
+        <v>0.9999990463259101</v>
       </c>
       <c r="D200">
-        <v>0.9989003513588706</v>
+        <v>0.9999999009073008</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.9999999664723876</v>
+        <v>1</v>
       </c>
       <c r="C201">
-        <v>0.9384765335726117</v>
+        <v>0.9999990463259101</v>
       </c>
       <c r="D201">
-        <v>0.9929615203582036</v>
+        <v>0.9999999046325911</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.9999999664723876</v>
+        <v>1</v>
       </c>
       <c r="C202">
-        <v>0.9384760716366782</v>
+        <v>0.9999995231628982</v>
       </c>
       <c r="D202">
-        <v>0.9937427166939644</v>
+        <v>0.9999999523162899</v>
       </c>
     </row>
   </sheetData>
